--- a/河北/导出模板/对比结果.xlsx
+++ b/河北/导出模板/对比结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\河北\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F14DBF9-655E-47F6-B583-B2E620438A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FD8FAC-231D-4A5A-BD75-D3C2477C0D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -143,6 +143,12 @@
     </r>
   </si>
   <si>
+    <t>合同详情id</t>
+  </si>
+  <si>
+    <t>合同id</t>
+  </si>
+  <si>
     <t>1月月集中1</t>
   </si>
   <si>
@@ -164,6 +170,12 @@
     <t>[None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, 12.079032258064515, 12.079032258064515, None, None, None, None, None]</t>
   </si>
   <si>
+    <t>e4d4ed938a20b624018a210145780012</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144a10000</t>
+  </si>
+  <si>
     <t>电价</t>
   </si>
   <si>
@@ -182,6 +194,102 @@
     <t>[0.18751209677419353, 0.25001612903225806, 0.25001612903225806, 0.25001612903225806, 0.25001612903225806, 0.25001612903225806, 0.18751209677419353, 0.18751209677419353, 0.18751209677419353, 0.18751209677419353, 0.18751209677419353, 0.18751209677419353, 0.25001612903225806, 0.25001612903225806, 0.25001612903225806, 0.18751209677419353, 0.1666774193548387, 0.25001612903225806, 0.25001612903225806, 0.1666774193548387, 0.1666774193548387, 0.1666774193548387, 0.1666774193548387, 0.1666774193548387]</t>
   </si>
   <si>
+    <t>e4d4ed938a20b624018a21014623008e</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144c00004</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014624008f</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146250090</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146260091</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146270092</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146280093</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146290094</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101462a0095</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101462c0096</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101462d0097</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101462e0098</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101462f0099</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014630009a</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014631009b</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014632009c</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014633009d</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014634009e</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a21014636009f</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463700a0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463800a1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463900a2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463a00a3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463b00a4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463c00a5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463d00a6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101463f00a7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464000a8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464100a9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464200aa</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464300ab</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464400ac</t>
+  </si>
+  <si>
     <t>T6</t>
   </si>
   <si>
@@ -191,6 +299,102 @@
     <t>[0.5283409274193549, 0.4952210483870968, 0.4952210483870968, 0.4952210483870968, 0.4952210483870968, 0.4952210483870968, 0.5283409274193549, 0.5283409274193549, 0.5283409274193549, 0.5283409274193549, 0.5283409274193549, 0.5283409274193549, 0.4952210483870968, 0.4952210483870968, 0.4952210483870968, 0.5283409274193549, 0.43108413978494625, 0.921048064516129, 0.921048064516129, 0.43108413978494625, 0.43108413978494625, 0.43108413978494625, 0.43108413978494625, 0.43108413978494625]</t>
   </si>
   <si>
+    <t>e4d4ed938a20b624018a2101464500ad</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144c10005</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464600ae</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464700af</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464800b0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464a00b1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464b00b2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464c00b3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464d00b4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464e00b5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101464f00b6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465000b7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465100b8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465200b9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465300ba</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465400bb</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465500bc</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465600bd</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465700be</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465800bf</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465900c0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465a00c1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465b00c2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465c00c3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465d00c4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465e00c5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101465f00c6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466000c7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466100c8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466200c9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466300ca</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466400cb</t>
+  </si>
+  <si>
     <t>T7</t>
   </si>
   <si>
@@ -200,6 +404,102 @@
     <t>[0.7653947177419355, 0.5466812298387097, 0.5466812298387097, 0.5466812298387097, 0.5466812298387097, 0.5466812298387097, 0.7653947177419355, 0.7653947177419355, 0.7653947177419355, 0.7653947177419355, 0.7653947177419355, 0.7653947177419355, 0.5466812298387097, 0.5466812298387097, 0.5466812298387097, 0.7653947177419355, 0.6269650000000001, 1.0699947580645162, 1.0699947580645162, 0.6269650000000001, 0.6269650000000001, 0.6269650000000001, 0.6269650000000001, 0.6269650000000001]</t>
   </si>
   <si>
+    <t>e4d4ed938a20b624018a2101466b00cc</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144c30006</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466c00cd</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466d00ce</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466e00cf</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101466f00d0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467000d1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467200d2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467300d3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467400d4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467400d5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467500d6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467600d7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467800d8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467800d9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467900da</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467a00db</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467b00dc</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467c00dd</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467d00de</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467e00df</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101467f00e0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468000e1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468100e2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468200e3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468300e4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468400e5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468500e6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468600e7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468700e8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468800e9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468900ea</t>
+  </si>
+  <si>
     <t>T8</t>
   </si>
   <si>
@@ -209,6 +509,102 @@
     <t>[1.095477943548387, 0.7793833790322581, 0.7793833790322581, 0.7793833790322581, 0.7793833790322581, 0.7793833790322581, 1.095477943548387, 1.095477943548387, 1.095477943548387, 1.095477943548387, 1.095477943548387, 1.095477943548387, 0.7793833790322581, 0.7793833790322581, 0.7793833790322581, 1.095477943548387, 0.9021583064516129, 3.360370112903226, 3.360370112903226, 0.9021583064516129, 0.9021583064516129, 0.9021583064516129, 0.9021583064516129, 0.9021583064516129]</t>
   </si>
   <si>
+    <t>e4d4ed938a20b624018a2101468a00eb</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144c40007</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468b00ec</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101468f00ed</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469100ee</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469200ef</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469300f0</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469400f1</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469500f2</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469500f3</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469600f4</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469700f5</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469800f6</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469900f7</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469b00f8</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469c00f9</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469d00fa</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469e00fb</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a2101469f00fc</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a000fd</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a100fe</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a200ff</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a30100</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a40101</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a50102</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a60103</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a70104</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a80105</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146a90106</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146aa0107</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146ab0108</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146ac0109</t>
+  </si>
+  <si>
     <t>T9</t>
   </si>
   <si>
@@ -216,6 +612,102 @@
   </si>
   <si>
     <t>[0.2640692701612903, 0.20549179838709675, 0.20549179838709675, 0.20549179838709675, 0.20549179838709675, 0.20549179838709675, 0.2640692701612903, 0.2640692701612903, 0.2640692701612903, 0.2640692701612903, 0.2640692701612903, 0.2640692701612903, 0.20549179838709675, 0.20549179838709675, 0.20549179838709675, 0.2640692701612903, 0.12811257526881717, 0.6337083225806451, 0.6337083225806451, 0.12811257526881717, 0.12811257526881717, 0.12811257526881717, 0.12811257526881717, 0.12811257526881717]</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146ad010a</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210144c90008</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146ae010b</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146af010c</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b0010d</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b1010e</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b2010f</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b30110</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b40111</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b50112</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b60113</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b70114</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b80115</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146b90116</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146ba0117</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146bb0118</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146bc0119</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146bd011a</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146be011b</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146bf011c</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c0011d</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c1011e</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c2011f</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c30120</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c40121</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c50122</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c60123</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146c70124</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146cf0125</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146d10126</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146d20127</t>
+  </si>
+  <si>
+    <t>e4d4ed938a20b624018a210146d30128</t>
   </si>
 </sst>
 </file>
@@ -563,7 +1055,7 @@
   <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -575,7 +1067,7 @@
     <col min="8" max="28" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -609,25 +1101,31 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>44927</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -636,30 +1134,36 @@
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>44927</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -668,30 +1172,36 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>44927</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -703,30 +1213,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>44928</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -738,30 +1254,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>44929</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -773,30 +1295,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
         <v>44930</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -808,30 +1336,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>44931</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -843,30 +1377,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>44932</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -878,30 +1418,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>44933</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -913,30 +1459,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>44934</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -948,30 +1500,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>44935</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -983,30 +1541,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
         <v>44936</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1018,30 +1582,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>44937</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1053,30 +1623,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
         <v>44938</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1088,30 +1664,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
         <v>44939</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1123,30 +1705,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1">
         <v>44940</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1158,30 +1746,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1">
         <v>44941</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1193,30 +1787,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1">
         <v>44942</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1228,30 +1828,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <v>44943</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1263,30 +1869,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1">
         <v>44944</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1298,30 +1910,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1">
         <v>44945</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1333,30 +1951,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1">
         <v>44946</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1368,30 +1992,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1">
         <v>44947</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1403,30 +2033,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1">
         <v>44948</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1438,30 +2074,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1">
         <v>44949</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1473,30 +2115,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
         <v>44950</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1508,30 +2156,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1">
         <v>44951</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1543,30 +2197,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
         <v>44952</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1578,30 +2238,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1">
         <v>44953</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1613,30 +2279,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1">
         <v>44954</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1648,30 +2320,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1">
         <v>44955</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1683,30 +2361,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1">
         <v>44956</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1718,30 +2402,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1">
         <v>44957</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1753,30 +2443,36 @@
         <v>0.18751200000000001</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1">
         <v>44927</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1788,30 +2484,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1">
         <v>44928</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1823,30 +2525,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1">
         <v>44929</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1858,30 +2566,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E38" s="1">
         <v>44930</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1893,30 +2607,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1">
         <v>44931</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1928,30 +2648,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1">
         <v>44932</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1963,30 +2689,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1">
         <v>44933</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1998,30 +2730,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1">
         <v>44934</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2033,30 +2771,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1">
         <v>44935</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2068,30 +2812,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E44" s="1">
         <v>44936</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2103,30 +2853,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E45" s="1">
         <v>44937</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2138,30 +2894,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1">
         <v>44938</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2173,30 +2935,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1">
         <v>44939</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2208,30 +2976,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E48" s="1">
         <v>44940</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2243,30 +3017,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E49" s="1">
         <v>44941</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2278,30 +3058,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1">
         <v>44942</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2313,30 +3099,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1">
         <v>44943</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2348,30 +3140,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E52" s="1">
         <v>44944</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2383,30 +3181,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1">
         <v>44945</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2418,30 +3222,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1">
         <v>44946</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2453,30 +3263,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1">
         <v>44947</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2488,30 +3304,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1">
         <v>44948</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2523,30 +3345,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E57" s="1">
         <v>44949</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2558,30 +3386,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E58" s="1">
         <v>44950</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2593,30 +3427,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E59" s="1">
         <v>44951</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2628,30 +3468,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E60" s="1">
         <v>44952</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2663,30 +3509,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E61" s="1">
         <v>44953</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2698,30 +3550,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E62" s="1">
         <v>44954</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2733,30 +3591,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E63" s="1">
         <v>44955</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2768,30 +3632,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E64" s="1">
         <v>44956</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2803,30 +3673,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1">
         <v>44957</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2838,30 +3714,36 @@
         <v>0.52834099999999995</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1">
         <v>44927</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2873,30 +3755,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1">
         <v>44928</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2908,30 +3796,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E68" s="1">
         <v>44929</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2943,30 +3837,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E69" s="1">
         <v>44930</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2978,30 +3878,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E70" s="1">
         <v>44931</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -3013,30 +3919,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E71" s="1">
         <v>44932</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -3048,30 +3960,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1">
         <v>44933</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3083,30 +4001,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E73" s="1">
         <v>44934</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -3118,30 +4042,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E74" s="1">
         <v>44935</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3153,30 +4083,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E75" s="1">
         <v>44936</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3188,30 +4124,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E76" s="1">
         <v>44937</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3223,30 +4165,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E77" s="1">
         <v>44938</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3258,30 +4206,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1">
         <v>44939</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3293,30 +4247,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E79" s="1">
         <v>44940</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3328,30 +4288,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E80" s="1">
         <v>44941</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3363,30 +4329,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E81" s="1">
         <v>44942</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3398,30 +4370,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E82" s="1">
         <v>44943</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3433,30 +4411,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E83" s="1">
         <v>44944</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3468,30 +4452,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E84" s="1">
         <v>44945</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3503,30 +4493,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E85" s="1">
         <v>44946</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3538,30 +4534,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E86" s="1">
         <v>44947</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3573,30 +4575,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E87" s="1">
         <v>44948</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3608,30 +4616,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E88" s="1">
         <v>44949</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3643,30 +4657,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E89" s="1">
         <v>44950</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3678,30 +4698,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E90" s="1">
         <v>44951</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3713,30 +4739,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E91" s="1">
         <v>44952</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3748,30 +4780,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E92" s="1">
         <v>44953</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3783,30 +4821,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E93" s="1">
         <v>44954</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3818,30 +4862,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E94" s="1">
         <v>44955</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3853,30 +4903,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E95" s="1">
         <v>44956</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3888,30 +4944,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E96" s="1">
         <v>44957</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3923,30 +4985,36 @@
         <v>0.76539500000000005</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E97" s="1">
         <v>44927</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3958,30 +5026,36 @@
         <v>1.095478</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E98" s="1">
         <v>44928</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3993,30 +5067,36 @@
         <v>1.095478</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E99" s="1">
         <v>44929</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -4028,30 +5108,36 @@
         <v>1.095478</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E100" s="1">
         <v>44930</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -4063,30 +5149,36 @@
         <v>1.095478</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E101" s="1">
         <v>44931</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -4098,30 +5190,36 @@
         <v>1.095478</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E102" s="1">
         <v>44932</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -4133,30 +5231,36 @@
         <v>1.095478</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E103" s="1">
         <v>44933</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -4168,30 +5272,36 @@
         <v>1.095478</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E104" s="1">
         <v>44934</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4203,30 +5313,36 @@
         <v>1.095478</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E105" s="1">
         <v>44935</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -4238,30 +5354,36 @@
         <v>1.095478</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E106" s="1">
         <v>44936</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -4273,30 +5395,36 @@
         <v>1.095478</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E107" s="1">
         <v>44937</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -4308,30 +5436,36 @@
         <v>1.095478</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E108" s="1">
         <v>44938</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -4343,30 +5477,36 @@
         <v>1.095478</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E109" s="1">
         <v>44939</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -4378,30 +5518,36 @@
         <v>1.095478</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E110" s="1">
         <v>44940</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -4413,30 +5559,36 @@
         <v>1.095478</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E111" s="1">
         <v>44941</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4448,30 +5600,36 @@
         <v>1.095478</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E112" s="1">
         <v>44942</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4483,30 +5641,36 @@
         <v>1.095478</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E113" s="1">
         <v>44943</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -4518,30 +5682,36 @@
         <v>1.095478</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E114" s="1">
         <v>44944</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -4553,30 +5723,36 @@
         <v>1.095478</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E115" s="1">
         <v>44945</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4588,30 +5764,36 @@
         <v>1.095478</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E116" s="1">
         <v>44946</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4623,30 +5805,36 @@
         <v>1.095478</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E117" s="1">
         <v>44947</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -4658,30 +5846,36 @@
         <v>1.095478</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E118" s="1">
         <v>44948</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -4693,30 +5887,36 @@
         <v>1.095478</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E119" s="1">
         <v>44949</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -4728,30 +5928,36 @@
         <v>1.095478</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E120" s="1">
         <v>44950</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -4763,30 +5969,36 @@
         <v>1.095478</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E121" s="1">
         <v>44951</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4798,30 +6010,36 @@
         <v>1.095478</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E122" s="1">
         <v>44952</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -4833,30 +6051,36 @@
         <v>1.095478</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E123" s="1">
         <v>44953</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -4868,30 +6092,36 @@
         <v>1.095478</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E124" s="1">
         <v>44954</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4903,30 +6133,36 @@
         <v>1.095478</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E125" s="1">
         <v>44955</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -4938,30 +6174,36 @@
         <v>1.095478</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E126" s="1">
         <v>44956</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -4973,30 +6215,36 @@
         <v>1.095478</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E127" s="1">
         <v>44957</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -5008,30 +6256,36 @@
         <v>1.095478</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E128" s="1">
         <v>44927</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -5043,30 +6297,36 @@
         <v>0.264069</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E129" s="1">
         <v>44928</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -5078,30 +6338,36 @@
         <v>0.264069</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E130" s="1">
         <v>44929</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -5113,30 +6379,36 @@
         <v>0.264069</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E131" s="1">
         <v>44930</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -5148,30 +6420,36 @@
         <v>0.264069</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E132" s="1">
         <v>44931</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -5183,30 +6461,36 @@
         <v>0.264069</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E133" s="1">
         <v>44932</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -5218,30 +6502,36 @@
         <v>0.264069</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E134" s="1">
         <v>44933</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -5253,30 +6543,36 @@
         <v>0.264069</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E135" s="1">
         <v>44934</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -5288,30 +6584,36 @@
         <v>0.264069</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E136" s="1">
         <v>44935</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -5323,30 +6625,36 @@
         <v>0.264069</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E137" s="1">
         <v>44936</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -5358,30 +6666,36 @@
         <v>0.264069</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E138" s="1">
         <v>44937</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -5393,30 +6707,36 @@
         <v>0.264069</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E139" s="1">
         <v>44938</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -5428,30 +6748,36 @@
         <v>0.264069</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E140" s="1">
         <v>44939</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -5463,30 +6789,36 @@
         <v>0.264069</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E141" s="1">
         <v>44940</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -5498,30 +6830,36 @@
         <v>0.264069</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E142" s="1">
         <v>44941</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -5533,30 +6871,36 @@
         <v>0.264069</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E143" s="1">
         <v>44942</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -5568,30 +6912,36 @@
         <v>0.264069</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E144" s="1">
         <v>44943</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -5603,30 +6953,36 @@
         <v>0.264069</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E145" s="1">
         <v>44944</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -5638,30 +6994,36 @@
         <v>0.264069</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E146" s="1">
         <v>44945</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -5673,30 +7035,36 @@
         <v>0.264069</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E147" s="1">
         <v>44946</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -5708,30 +7076,36 @@
         <v>0.264069</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E148" s="1">
         <v>44947</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -5743,30 +7117,36 @@
         <v>0.264069</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E149" s="1">
         <v>44948</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -5778,30 +7158,36 @@
         <v>0.264069</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E150" s="1">
         <v>44949</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -5813,30 +7199,36 @@
         <v>0.264069</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E151" s="1">
         <v>44950</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -5848,30 +7240,36 @@
         <v>0.264069</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E152" s="1">
         <v>44951</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -5883,30 +7281,36 @@
         <v>0.264069</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E153" s="1">
         <v>44952</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -5918,30 +7322,36 @@
         <v>0.264069</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E154" s="1">
         <v>44953</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5953,30 +7363,36 @@
         <v>0.264069</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E155" s="1">
         <v>44954</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -5988,30 +7404,36 @@
         <v>0.264069</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E156" s="1">
         <v>44955</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -6023,30 +7445,36 @@
         <v>0.264069</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E157" s="1">
         <v>44956</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -6058,30 +7486,36 @@
         <v>0.264069</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E158" s="1">
         <v>44957</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -6093,10 +7527,16 @@
         <v>0.264069</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
